--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-C3ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-C3ar1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H2">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I2">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J2">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.9334764999999999</v>
+        <v>0.9761175</v>
       </c>
       <c r="N2">
-        <v>1.866953</v>
+        <v>1.952235</v>
       </c>
       <c r="O2">
-        <v>0.002089345043310503</v>
+        <v>0.002033044083850585</v>
       </c>
       <c r="P2">
-        <v>0.001394044983620425</v>
+        <v>0.001357706068686754</v>
       </c>
       <c r="Q2">
-        <v>0.633186444715</v>
+        <v>1.99200934783125</v>
       </c>
       <c r="R2">
-        <v>2.53274577886</v>
+        <v>7.968037391325001</v>
       </c>
       <c r="S2">
-        <v>9.204287642674128E-06</v>
+        <v>1.56331558940551E-05</v>
       </c>
       <c r="T2">
-        <v>4.104146798468295E-06</v>
+        <v>6.985987251365427E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H3">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I3">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J3">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.325333</v>
       </c>
       <c r="O3">
-        <v>0.0002427245145701171</v>
+        <v>0.0002258663637425352</v>
       </c>
       <c r="P3">
-        <v>0.0002429246138795051</v>
+        <v>0.0002262568740157142</v>
       </c>
       <c r="Q3">
-        <v>0.07355887574333332</v>
+        <v>0.2213075021391667</v>
       </c>
       <c r="R3">
-        <v>0.44135325446</v>
+        <v>1.327845012835</v>
       </c>
       <c r="S3">
-        <v>1.06928544769797E-06</v>
+        <v>1.736806448841329E-06</v>
       </c>
       <c r="T3">
-        <v>7.151837193470248E-07</v>
+        <v>1.164189859544813E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H4">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I4">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J4">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>230.9694466666667</v>
+        <v>159.4830726666667</v>
       </c>
       <c r="N4">
-        <v>692.9083400000001</v>
+        <v>478.449218</v>
       </c>
       <c r="O4">
-        <v>0.5169652032473979</v>
+        <v>0.3321691470128132</v>
       </c>
       <c r="P4">
-        <v>0.5173913834390882</v>
+        <v>0.3327434488353256</v>
       </c>
       <c r="Q4">
-        <v>156.6688853684667</v>
+        <v>325.4646818368184</v>
       </c>
       <c r="R4">
-        <v>940.0133122108</v>
+        <v>1952.78809102091</v>
       </c>
       <c r="S4">
-        <v>0.002277410544121123</v>
+        <v>0.00255422501641546</v>
       </c>
       <c r="T4">
-        <v>0.001523229318168685</v>
+        <v>0.001712109524403445</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H5">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I5">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J5">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.170573</v>
+        <v>1.5099175</v>
       </c>
       <c r="N5">
-        <v>0.341146</v>
+        <v>3.019835</v>
       </c>
       <c r="O5">
-        <v>0.0003817834215136669</v>
+        <v>0.003144835371230888</v>
       </c>
       <c r="P5">
-        <v>0.0002547321062620075</v>
+        <v>0.002100181743454381</v>
       </c>
       <c r="Q5">
-        <v>0.11570137163</v>
+        <v>3.08136036333125</v>
       </c>
       <c r="R5">
-        <v>0.46280548652</v>
+        <v>12.325441453325</v>
       </c>
       <c r="S5">
-        <v>1.681888034753798E-06</v>
+        <v>2.418230967548675E-05</v>
       </c>
       <c r="T5">
-        <v>7.49945640683116E-07</v>
+        <v>1.080634698754357E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H6">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I6">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J6">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.617929</v>
+        <v>48.83909766666667</v>
       </c>
       <c r="N6">
-        <v>4.853787</v>
+        <v>146.517293</v>
       </c>
       <c r="O6">
-        <v>0.003621314448278365</v>
+        <v>0.1017213999050499</v>
       </c>
       <c r="P6">
-        <v>0.003624299818427155</v>
+        <v>0.1018972704995327</v>
       </c>
       <c r="Q6">
-        <v>1.09745741999</v>
+        <v>99.66826646550584</v>
       </c>
       <c r="R6">
-        <v>6.584744519939999</v>
+        <v>598.009598793035</v>
       </c>
       <c r="S6">
-        <v>1.595314279622905E-05</v>
+        <v>0.0007821898772924188</v>
       </c>
       <c r="T6">
-        <v>1.067014240663639E-05</v>
+        <v>0.0005243057014153383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H7">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I7">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J7">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>212.9796143333333</v>
+        <v>269.209437</v>
       </c>
       <c r="N7">
-        <v>638.9388429999999</v>
+        <v>807.6283109999999</v>
       </c>
       <c r="O7">
-        <v>0.4766996293249295</v>
+        <v>0.5607057072633129</v>
       </c>
       <c r="P7">
-        <v>0.4770926150387226</v>
+        <v>0.5616751359789848</v>
       </c>
       <c r="Q7">
-        <v>144.4662021984433</v>
+        <v>549.3884855341576</v>
       </c>
       <c r="R7">
-        <v>866.7972131906598</v>
+        <v>3296.330913204945</v>
       </c>
       <c r="S7">
-        <v>0.002100026762698152</v>
+        <v>0.004311564024589053</v>
       </c>
       <c r="T7">
-        <v>0.001404587478589706</v>
+        <v>0.00289006245891903</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>324.26945</v>
       </c>
       <c r="I8">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J8">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.9334764999999999</v>
+        <v>0.9761175</v>
       </c>
       <c r="N8">
-        <v>1.866953</v>
+        <v>1.952235</v>
       </c>
       <c r="O8">
-        <v>0.002089345043310503</v>
+        <v>0.002033044083850585</v>
       </c>
       <c r="P8">
-        <v>0.001394044983620425</v>
+        <v>0.001357706068686754</v>
       </c>
       <c r="Q8">
-        <v>100.8993037476417</v>
+        <v>105.508361620125</v>
       </c>
       <c r="R8">
-        <v>605.39582248585</v>
+        <v>633.05016972075</v>
       </c>
       <c r="S8">
-        <v>0.001466718408756928</v>
+        <v>0.0008280225527704113</v>
       </c>
       <c r="T8">
-        <v>0.00098100383678449</v>
+        <v>0.0005550275680130145</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>324.26945</v>
       </c>
       <c r="I9">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J9">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.325333</v>
       </c>
       <c r="O9">
-        <v>0.0002427245145701171</v>
+        <v>0.0002258663637425352</v>
       </c>
       <c r="P9">
-        <v>0.0002429246138795051</v>
+        <v>0.0002262568740157142</v>
       </c>
       <c r="Q9">
         <v>11.72172810853889</v>
@@ -1013,10 +1013,10 @@
         <v>105.49555297685</v>
       </c>
       <c r="S9">
-        <v>0.0001703923987645887</v>
+        <v>9.199133682179868E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001709485569441804</v>
+        <v>9.249336467401621E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>324.26945</v>
       </c>
       <c r="I10">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J10">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>230.9694466666667</v>
+        <v>159.4830726666667</v>
       </c>
       <c r="N10">
-        <v>692.9083400000001</v>
+        <v>478.449218</v>
       </c>
       <c r="O10">
-        <v>0.5169652032473979</v>
+        <v>0.3321691470128132</v>
       </c>
       <c r="P10">
-        <v>0.5173913834390882</v>
+        <v>0.3327434488353256</v>
       </c>
       <c r="Q10">
-        <v>24965.44514580145</v>
+        <v>17238.49608597668</v>
       </c>
       <c r="R10">
-        <v>224689.006312213</v>
+        <v>155146.4647737901</v>
       </c>
       <c r="S10">
-        <v>0.3629091244250944</v>
+        <v>0.1352865622766956</v>
       </c>
       <c r="T10">
-        <v>0.364093654248378</v>
+        <v>0.1360248668240599</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>324.26945</v>
       </c>
       <c r="I11">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J11">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.170573</v>
+        <v>1.5099175</v>
       </c>
       <c r="N11">
-        <v>0.341146</v>
+        <v>3.019835</v>
       </c>
       <c r="O11">
-        <v>0.0003817834215136669</v>
+        <v>0.003144835371230888</v>
       </c>
       <c r="P11">
-        <v>0.0002547321062620075</v>
+        <v>0.002100181743454381</v>
       </c>
       <c r="Q11">
-        <v>18.43720429828333</v>
+        <v>163.2067057567917</v>
       </c>
       <c r="R11">
-        <v>110.6232257897</v>
+        <v>979.2402345407501</v>
       </c>
       <c r="S11">
-        <v>0.0002680116308625826</v>
+        <v>0.001280835291676174</v>
       </c>
       <c r="T11">
-        <v>0.0001792576111469768</v>
+        <v>0.0008585501621733969</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>324.26945</v>
       </c>
       <c r="I12">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J12">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.617929</v>
+        <v>48.83909766666667</v>
       </c>
       <c r="N12">
-        <v>4.853787</v>
+        <v>146.517293</v>
       </c>
       <c r="O12">
-        <v>0.003621314448278365</v>
+        <v>0.1017213999050499</v>
       </c>
       <c r="P12">
-        <v>0.003624299818427155</v>
+        <v>0.1018972704995327</v>
       </c>
       <c r="Q12">
-        <v>174.8816489896833</v>
+        <v>5279.009112955428</v>
       </c>
       <c r="R12">
-        <v>1573.93484090715</v>
+        <v>47511.08201659885</v>
       </c>
       <c r="S12">
-        <v>0.002542159602691324</v>
+        <v>0.04142930981665299</v>
       </c>
       <c r="T12">
-        <v>0.002550457172695124</v>
+        <v>0.0416554035787906</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>324.26945</v>
       </c>
       <c r="I13">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J13">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>212.9796143333333</v>
+        <v>269.209437</v>
       </c>
       <c r="N13">
-        <v>638.9388429999999</v>
+        <v>807.6283109999999</v>
       </c>
       <c r="O13">
-        <v>0.4766996293249295</v>
+        <v>0.5607057072633129</v>
       </c>
       <c r="P13">
-        <v>0.4770926150387226</v>
+        <v>0.5616751359789848</v>
       </c>
       <c r="Q13">
-        <v>23020.92746702737</v>
+        <v>29098.79869026655</v>
       </c>
       <c r="R13">
-        <v>207188.3472032463</v>
+        <v>261889.1882123989</v>
       </c>
       <c r="S13">
-        <v>0.3346427264453373</v>
+        <v>0.2283654224564412</v>
       </c>
       <c r="T13">
-        <v>0.335734995178584</v>
+        <v>0.2296116898389736</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H14">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I14">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J14">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.9334764999999999</v>
+        <v>0.9761175</v>
       </c>
       <c r="N14">
-        <v>1.866953</v>
+        <v>1.952235</v>
       </c>
       <c r="O14">
-        <v>0.002089345043310503</v>
+        <v>0.002033044083850585</v>
       </c>
       <c r="P14">
-        <v>0.001394044983620425</v>
+        <v>0.001357706068686754</v>
       </c>
       <c r="Q14">
-        <v>16.41362130168017</v>
+        <v>48.40823401402501</v>
       </c>
       <c r="R14">
-        <v>98.481727810081</v>
+        <v>290.44940408415</v>
       </c>
       <c r="S14">
-        <v>0.0002385959032755154</v>
+        <v>0.0003799045771150981</v>
       </c>
       <c r="T14">
-        <v>0.000159583117766085</v>
+        <v>0.0002546518966273505</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H15">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I15">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J15">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.325333</v>
       </c>
       <c r="O15">
-        <v>0.0002427245145701171</v>
+        <v>0.0002258663637425352</v>
       </c>
       <c r="P15">
-        <v>0.0002429246138795051</v>
+        <v>0.0002262568740157142</v>
       </c>
       <c r="Q15">
-        <v>1.906812029704555</v>
+        <v>5.378039698596667</v>
       </c>
       <c r="R15">
-        <v>17.161308267341</v>
+        <v>48.40235728737</v>
       </c>
       <c r="S15">
-        <v>2.77182914264877E-05</v>
+        <v>4.220649521756217E-05</v>
       </c>
       <c r="T15">
-        <v>2.780876350513041E-05</v>
+        <v>4.243683034340939E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H16">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I16">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J16">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>230.9694466666667</v>
+        <v>159.4830726666667</v>
       </c>
       <c r="N16">
-        <v>692.9083400000001</v>
+        <v>478.449218</v>
       </c>
       <c r="O16">
-        <v>0.5169652032473979</v>
+        <v>0.3321691470128132</v>
       </c>
       <c r="P16">
-        <v>0.5173913834390882</v>
+        <v>0.3327434488353256</v>
       </c>
       <c r="Q16">
-        <v>4061.210999789798</v>
+        <v>7909.185014021115</v>
       </c>
       <c r="R16">
-        <v>36550.89899810818</v>
+        <v>71182.66512619003</v>
       </c>
       <c r="S16">
-        <v>0.05903561981097469</v>
+        <v>0.06207075406234032</v>
       </c>
       <c r="T16">
-        <v>0.05922831116976296</v>
+        <v>0.06240949517018838</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H17">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I17">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J17">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.170573</v>
+        <v>1.5099175</v>
       </c>
       <c r="N17">
-        <v>0.341146</v>
+        <v>3.019835</v>
       </c>
       <c r="O17">
-        <v>0.0003817834215136669</v>
+        <v>0.003144835371230888</v>
       </c>
       <c r="P17">
-        <v>0.0002547321062620075</v>
+        <v>0.002100181743454381</v>
       </c>
       <c r="Q17">
-        <v>2.999240608940334</v>
+        <v>74.880779908025</v>
       </c>
       <c r="R17">
-        <v>17.995443653642</v>
+        <v>449.28467944815</v>
       </c>
       <c r="S17">
-        <v>4.359833269441114E-05</v>
+        <v>0.0005876593435894616</v>
       </c>
       <c r="T17">
-        <v>2.916042465634049E-05</v>
+        <v>0.000393910932982789</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H18">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I18">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J18">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>1.617929</v>
+        <v>48.83909766666667</v>
       </c>
       <c r="N18">
-        <v>4.853787</v>
+        <v>146.517293</v>
       </c>
       <c r="O18">
-        <v>0.003621314448278365</v>
+        <v>0.1017213999050499</v>
       </c>
       <c r="P18">
-        <v>0.003624299818427155</v>
+        <v>0.1018972704995327</v>
       </c>
       <c r="Q18">
-        <v>28.44857251254433</v>
+        <v>2422.059300116864</v>
       </c>
       <c r="R18">
-        <v>256.037152612899</v>
+        <v>21798.53370105177</v>
       </c>
       <c r="S18">
-        <v>0.00041354145625589</v>
+        <v>0.01900815910557692</v>
       </c>
       <c r="T18">
-        <v>0.0004148912492347116</v>
+        <v>0.0191118930616218</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H19">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I19">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J19">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>212.9796143333333</v>
+        <v>269.209437</v>
       </c>
       <c r="N19">
-        <v>638.9388429999999</v>
+        <v>807.6283109999999</v>
       </c>
       <c r="O19">
-        <v>0.4766996293249295</v>
+        <v>0.5607057072633129</v>
       </c>
       <c r="P19">
-        <v>0.4770926150387226</v>
+        <v>0.5616751359789848</v>
       </c>
       <c r="Q19">
-        <v>3744.889919184067</v>
+        <v>13350.80400164931</v>
       </c>
       <c r="R19">
-        <v>33704.00927265661</v>
+        <v>120157.2360148438</v>
       </c>
       <c r="S19">
-        <v>0.05443743196656002</v>
+        <v>0.1047762152803107</v>
       </c>
       <c r="T19">
-        <v>0.05461511491065661</v>
+        <v>0.1053480145403057</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H20">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I20">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J20">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.9334764999999999</v>
+        <v>0.9761175</v>
       </c>
       <c r="N20">
-        <v>1.866953</v>
+        <v>1.952235</v>
       </c>
       <c r="O20">
-        <v>0.002089345043310503</v>
+        <v>0.002033044083850585</v>
       </c>
       <c r="P20">
-        <v>0.001394044983620425</v>
+        <v>0.001357706068686754</v>
       </c>
       <c r="Q20">
-        <v>0.4153307656685</v>
+        <v>0.88983798611625</v>
       </c>
       <c r="R20">
-        <v>1.661323062674</v>
+        <v>3.559351944465</v>
       </c>
       <c r="S20">
-        <v>6.037437892066102E-06</v>
+        <v>6.983388894511262E-06</v>
       </c>
       <c r="T20">
-        <v>2.692063998607864E-06</v>
+        <v>3.120666493637067E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H21">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I21">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J21">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.325333</v>
       </c>
       <c r="O21">
-        <v>0.0002427245145701171</v>
+        <v>0.0002258663637425352</v>
       </c>
       <c r="P21">
-        <v>0.0002429246138795051</v>
+        <v>0.0002262568740157142</v>
       </c>
       <c r="Q21">
-        <v>0.04825002878566666</v>
+        <v>0.09885888448783332</v>
       </c>
       <c r="R21">
-        <v>0.289500172714</v>
+        <v>0.593153306927</v>
       </c>
       <c r="S21">
-        <v>7.013844775380137E-07</v>
+        <v>7.758379017614963E-07</v>
       </c>
       <c r="T21">
-        <v>4.69115857152854E-07</v>
+        <v>5.200479411415264E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H22">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I22">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J22">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>230.9694466666667</v>
+        <v>159.4830726666667</v>
       </c>
       <c r="N22">
-        <v>692.9083400000001</v>
+        <v>478.449218</v>
       </c>
       <c r="O22">
-        <v>0.5169652032473979</v>
+        <v>0.3321691470128132</v>
       </c>
       <c r="P22">
-        <v>0.5173913834390882</v>
+        <v>0.3327434488353256</v>
       </c>
       <c r="Q22">
-        <v>102.7650049359534</v>
+        <v>145.3862841321237</v>
       </c>
       <c r="R22">
-        <v>616.5900296157201</v>
+        <v>872.317704792742</v>
       </c>
       <c r="S22">
-        <v>0.001493839094197737</v>
+        <v>0.001140981816761745</v>
       </c>
       <c r="T22">
-        <v>0.0009991433080796023</v>
+        <v>0.0007648056937404857</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H23">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I23">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J23">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.170573</v>
+        <v>1.5099175</v>
       </c>
       <c r="N23">
-        <v>0.341146</v>
+        <v>3.019835</v>
       </c>
       <c r="O23">
-        <v>0.0003817834215136669</v>
+        <v>0.003144835371230888</v>
       </c>
       <c r="P23">
-        <v>0.0002547321062620075</v>
+        <v>0.002100181743454381</v>
       </c>
       <c r="Q23">
-        <v>0.07589287431700001</v>
+        <v>1.37645513721625</v>
       </c>
       <c r="R23">
-        <v>0.303571497268</v>
+        <v>5.505820548865</v>
       </c>
       <c r="S23">
-        <v>1.103213518030064E-06</v>
+        <v>1.080232769223808E-05</v>
       </c>
       <c r="T23">
-        <v>4.919175066908908E-07</v>
+        <v>4.827235399842996E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H24">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I24">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J24">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>1.617929</v>
+        <v>48.83909766666667</v>
       </c>
       <c r="N24">
-        <v>4.853787</v>
+        <v>146.517293</v>
       </c>
       <c r="O24">
-        <v>0.003621314448278365</v>
+        <v>0.1017213999050499</v>
       </c>
       <c r="P24">
-        <v>0.003624299818427155</v>
+        <v>0.1018972704995327</v>
       </c>
       <c r="Q24">
-        <v>0.719863532041</v>
+        <v>44.52218540436117</v>
       </c>
       <c r="R24">
-        <v>4.319181192246</v>
+        <v>267.133112426167</v>
       </c>
       <c r="S24">
-        <v>1.046426541136559E-05</v>
+        <v>0.0003494071279977573</v>
       </c>
       <c r="T24">
-        <v>6.998947075588335E-06</v>
+        <v>0.0002342093072829371</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H25">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I25">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J25">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>212.9796143333333</v>
+        <v>269.209437</v>
       </c>
       <c r="N25">
-        <v>638.9388429999999</v>
+        <v>807.6283109999999</v>
       </c>
       <c r="O25">
-        <v>0.4766996293249295</v>
+        <v>0.5607057072633129</v>
       </c>
       <c r="P25">
-        <v>0.4770926150387226</v>
+        <v>0.5616751359789848</v>
       </c>
       <c r="Q25">
-        <v>94.76080682571566</v>
+        <v>245.4138802588515</v>
       </c>
       <c r="R25">
-        <v>568.5648409542939</v>
+        <v>1472.483281553109</v>
       </c>
       <c r="S25">
-        <v>0.001377486411081255</v>
+        <v>0.001925991689159788</v>
       </c>
       <c r="T25">
-        <v>0.0009213216704183031</v>
+        <v>0.001291001651671237</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H26">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I26">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J26">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.5</v>
       </c>
       <c r="M26">
-        <v>0.9334764999999999</v>
+        <v>0.9761175</v>
       </c>
       <c r="N26">
-        <v>1.866953</v>
+        <v>1.952235</v>
       </c>
       <c r="O26">
-        <v>0.002089345043310503</v>
+        <v>0.002033044083850585</v>
       </c>
       <c r="P26">
-        <v>0.001394044983620425</v>
+        <v>0.001357706068686754</v>
       </c>
       <c r="Q26">
-        <v>1.103175059888</v>
+        <v>95.29108400483999</v>
       </c>
       <c r="R26">
-        <v>6.619050359328</v>
+        <v>571.74650402904</v>
       </c>
       <c r="S26">
-        <v>1.603625702379612E-05</v>
+        <v>0.0007478380426191462</v>
       </c>
       <c r="T26">
-        <v>1.072573274739155E-05</v>
+        <v>0.0005012794985761769</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H27">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I27">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J27">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.325333</v>
       </c>
       <c r="O27">
-        <v>0.0002427245145701171</v>
+        <v>0.0002258663637425352</v>
       </c>
       <c r="P27">
-        <v>0.0002429246138795051</v>
+        <v>0.0002262568740157142</v>
       </c>
       <c r="Q27">
-        <v>0.1281586455786667</v>
+        <v>10.58661285912355</v>
       </c>
       <c r="R27">
-        <v>1.153427810208</v>
+        <v>95.27951573211199</v>
       </c>
       <c r="S27">
-        <v>1.862972664129792E-06</v>
+        <v>8.308302839887433E-05</v>
       </c>
       <c r="T27">
-        <v>1.869053378369534E-06</v>
+        <v>8.353644059771664E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H28">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I28">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J28">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>230.9694466666667</v>
+        <v>159.4830726666667</v>
       </c>
       <c r="N28">
-        <v>692.9083400000001</v>
+        <v>478.449218</v>
       </c>
       <c r="O28">
-        <v>0.5169652032473979</v>
+        <v>0.3321691470128132</v>
       </c>
       <c r="P28">
-        <v>0.5173913834390882</v>
+        <v>0.3327434488353256</v>
       </c>
       <c r="Q28">
-        <v>272.9578443150934</v>
+        <v>15569.14497980964</v>
       </c>
       <c r="R28">
-        <v>2456.62059883584</v>
+        <v>140122.3048182868</v>
       </c>
       <c r="S28">
-        <v>0.003967840016744542</v>
+        <v>0.1221856066446171</v>
       </c>
       <c r="T28">
-        <v>0.003980790985782032</v>
+        <v>0.1228524148441166</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H29">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I29">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J29">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.170573</v>
+        <v>1.5099175</v>
       </c>
       <c r="N29">
-        <v>0.341146</v>
+        <v>3.019835</v>
       </c>
       <c r="O29">
-        <v>0.0003817834215136669</v>
+        <v>0.003144835371230888</v>
       </c>
       <c r="P29">
-        <v>0.0002547321062620075</v>
+        <v>0.002100181743454381</v>
       </c>
       <c r="Q29">
-        <v>0.201581806816</v>
+        <v>147.4020036859067</v>
       </c>
       <c r="R29">
-        <v>1.209490840896</v>
+        <v>884.41202211544</v>
       </c>
       <c r="S29">
-        <v>2.930285303722134E-06</v>
+        <v>0.001156801048763489</v>
       </c>
       <c r="T29">
-        <v>1.95989980671267E-06</v>
+        <v>0.0007754094023428476</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H30">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I30">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J30">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>1.617929</v>
+        <v>48.83909766666667</v>
       </c>
       <c r="N30">
-        <v>4.853787</v>
+        <v>146.517293</v>
       </c>
       <c r="O30">
-        <v>0.003621314448278365</v>
+        <v>0.1017213999050499</v>
       </c>
       <c r="P30">
-        <v>0.003624299818427155</v>
+        <v>0.1018972704995327</v>
       </c>
       <c r="Q30">
-        <v>1.912055548768</v>
+        <v>4767.797481834838</v>
       </c>
       <c r="R30">
-        <v>17.208499938912</v>
+        <v>42910.17733651355</v>
       </c>
       <c r="S30">
-        <v>2.779451361684351E-05</v>
+        <v>0.037417355187593</v>
       </c>
       <c r="T30">
-        <v>2.788523448354801E-05</v>
+        <v>0.03762155435579159</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H31">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I31">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J31">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>212.9796143333333</v>
+        <v>269.209437</v>
       </c>
       <c r="N31">
-        <v>638.9388429999999</v>
+        <v>807.6283109999999</v>
       </c>
       <c r="O31">
-        <v>0.4766996293249295</v>
+        <v>0.5607057072633129</v>
       </c>
       <c r="P31">
-        <v>0.4770926150387226</v>
+        <v>0.5616751359789848</v>
       </c>
       <c r="Q31">
-        <v>251.6976043822186</v>
+        <v>26280.91298031505</v>
       </c>
       <c r="R31">
-        <v>2265.278439439968</v>
+        <v>236528.2168228355</v>
       </c>
       <c r="S31">
-        <v>0.003658791449252664</v>
+        <v>0.2062508442074672</v>
       </c>
       <c r="T31">
-        <v>0.003670733688499695</v>
+        <v>0.2073764248535677</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H32">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I32">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J32">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2421,28 +2421,28 @@
         <v>0.5</v>
       </c>
       <c r="M32">
-        <v>0.9334764999999999</v>
+        <v>0.9761175</v>
       </c>
       <c r="N32">
-        <v>1.866953</v>
+        <v>1.952235</v>
       </c>
       <c r="O32">
-        <v>0.002089345043310503</v>
+        <v>0.002033044083850585</v>
       </c>
       <c r="P32">
-        <v>0.001394044983620425</v>
+        <v>0.001357706068686754</v>
       </c>
       <c r="Q32">
-        <v>24.26676213263866</v>
+        <v>6.965192818057501</v>
       </c>
       <c r="R32">
-        <v>145.600572795832</v>
+        <v>41.791156908345</v>
       </c>
       <c r="S32">
-        <v>0.000352752748719523</v>
+        <v>5.466236655736324E-05</v>
       </c>
       <c r="T32">
-        <v>0.0002359360855253823</v>
+        <v>3.664045172520981E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H33">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I33">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J33">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.325333</v>
       </c>
       <c r="O33">
-        <v>0.0002427245145701171</v>
+        <v>0.0002258663637425352</v>
       </c>
       <c r="P33">
-        <v>0.0002429246138795051</v>
+        <v>0.0002262568740157142</v>
       </c>
       <c r="Q33">
-        <v>2.819131324283555</v>
+        <v>0.7738163609323334</v>
       </c>
       <c r="R33">
-        <v>25.372181918552</v>
+        <v>6.964347248391001</v>
       </c>
       <c r="S33">
-        <v>4.098018178967497E-05</v>
+        <v>6.072858953697225E-06</v>
       </c>
       <c r="T33">
-        <v>4.111394047532487E-05</v>
+        <v>6.10600059988561E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H34">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I34">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J34">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>230.9694466666667</v>
+        <v>159.4830726666667</v>
       </c>
       <c r="N34">
-        <v>692.9083400000001</v>
+        <v>478.449218</v>
       </c>
       <c r="O34">
-        <v>0.5169652032473979</v>
+        <v>0.3321691470128132</v>
       </c>
       <c r="P34">
-        <v>0.5173913834390882</v>
+        <v>0.3327434488353256</v>
       </c>
       <c r="Q34">
-        <v>6004.308220043219</v>
+        <v>1138.008848667921</v>
       </c>
       <c r="R34">
-        <v>54038.77398038896</v>
+        <v>10242.07963801129</v>
       </c>
       <c r="S34">
-        <v>0.08728136935626547</v>
+        <v>0.008931017195982997</v>
       </c>
       <c r="T34">
-        <v>0.08756625440891691</v>
+        <v>0.008979756778816786</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H35">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I35">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J35">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0.170573</v>
+        <v>1.5099175</v>
       </c>
       <c r="N35">
-        <v>0.341146</v>
+        <v>3.019835</v>
       </c>
       <c r="O35">
-        <v>0.0003817834215136669</v>
+        <v>0.003144835371230888</v>
       </c>
       <c r="P35">
-        <v>0.0002547321062620075</v>
+        <v>0.002100181743454381</v>
       </c>
       <c r="Q35">
-        <v>4.434235267037334</v>
+        <v>10.7741809022575</v>
       </c>
       <c r="R35">
-        <v>26.605411602224</v>
+        <v>64.645085413545</v>
       </c>
       <c r="S35">
-        <v>6.445807110016717E-05</v>
+        <v>8.455504983403895E-05</v>
       </c>
       <c r="T35">
-        <v>4.311230750460353E-05</v>
+        <v>5.667766356796132E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H36">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I36">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J36">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>1.617929</v>
+        <v>48.83909766666667</v>
       </c>
       <c r="N36">
-        <v>4.853787</v>
+        <v>146.517293</v>
       </c>
       <c r="O36">
-        <v>0.003621314448278365</v>
+        <v>0.1017213999050499</v>
       </c>
       <c r="P36">
-        <v>0.003624299818427155</v>
+        <v>0.1018972704995327</v>
       </c>
       <c r="Q36">
-        <v>42.05986780652533</v>
+        <v>348.4967048621457</v>
       </c>
       <c r="R36">
-        <v>378.5388102587279</v>
+        <v>3136.470343759312</v>
       </c>
       <c r="S36">
-        <v>0.0006114014675067119</v>
+        <v>0.002734978789936864</v>
       </c>
       <c r="T36">
-        <v>0.0006133970725315466</v>
+        <v>0.002749904494630473</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H37">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I37">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J37">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>212.9796143333333</v>
+        <v>269.209437</v>
       </c>
       <c r="N37">
-        <v>638.9388429999999</v>
+        <v>807.6283109999999</v>
       </c>
       <c r="O37">
-        <v>0.4766996293249295</v>
+        <v>0.5607057072633129</v>
       </c>
       <c r="P37">
-        <v>0.4770926150387226</v>
+        <v>0.5616751359789848</v>
       </c>
       <c r="Q37">
-        <v>5536.642475871776</v>
+        <v>1920.973281542133</v>
       </c>
       <c r="R37">
-        <v>49829.78228284598</v>
+        <v>17288.7595338792</v>
       </c>
       <c r="S37">
-        <v>0.08048316629000007</v>
+        <v>0.01507566960534504</v>
       </c>
       <c r="T37">
-        <v>0.08074586211197432</v>
+        <v>0.01515794263554758</v>
       </c>
     </row>
   </sheetData>
